--- a/src/others/house_data.xlsx
+++ b/src/others/house_data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="153">
   <si>
     <t xml:space="preserve">nameTH</t>
   </si>
@@ -28,6 +28,9 @@
     <t xml:space="preserve">nameEN</t>
   </si>
   <si>
+    <t xml:space="preserve">size</t>
+  </si>
+  <si>
     <t xml:space="preserve">slogan</t>
   </si>
   <si>
@@ -40,6 +43,9 @@
     <t xml:space="preserve">Kids</t>
   </si>
   <si>
+    <t xml:space="preserve">S</t>
+  </si>
+  <si>
     <t xml:space="preserve">Beware,  Kids!!!</t>
   </si>
   <si>
@@ -62,6 +68,9 @@
   </si>
   <si>
     <t xml:space="preserve">KOOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L</t>
   </si>
   <si>
     <t xml:space="preserve">koom in the drive ยานยนตร์สะกดใจ
@@ -81,6 +90,9 @@
     <t xml:space="preserve">KOH</t>
   </si>
   <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
     <t xml:space="preserve">Once  KOH , Always  KOH</t>
   </si>
   <si>
@@ -184,9 +196,9 @@
   </si>
   <si>
     <t xml:space="preserve">กระตุ้น  ต่อมสัน
- กระตุก  ต่อมความสัมพันธ์
- กระชาก ต่อมแห่งความสุข
-เรียนเชิญทางนี้ TEM  SCHOOL  บ้านที่สามารถมอบสิ่งเหล่านั้นให้แก่คุณได้
+กระตุก  ต่อมความสัมพันธ์
+กระชาก ต่อมแห่งความสุข
+เรียนเชิญทางนี้ TEM SCHOOL บ้านที่สามารถมอบสิ่งเหล่านั้นให้แก่คุณได้
 </t>
   </si>
   <si>
@@ -238,8 +250,7 @@
     <t xml:space="preserve">ผีบ่าวๆ หน่องซ่าวส้วยหม่าย</t>
   </si>
   <si>
-    <t xml:space="preserve"> 
-“เรามีพี่น้อง เรามีเพื่อนบ้าน เรามีตำนาน เราคือบ้านผี เหนื่อยต้องพัก อยากได้ความรักเลือกบ้านผี เพราะบ้านผีจะดูแลคุณอย่างดม เฮ้ย! บ้านผมจะดูแลคุณอย่างดี มาร่วมสัมผัสประสบการณ์แปลกใหม่ในวงการบ้านรับน้องได้แล้ววันนี้ ตำนานต้องมีการสานต่อ บ้านผีรอคุณอยู่”
+    <t xml:space="preserve">“เรามีพี่น้อง เรามีเพื่อนบ้าน เรามีตำนาน เราคือบ้านผี เหนื่อยต้องพัก อยากได้ความรักเลือกบ้านผี เพราะบ้านผีจะดูแลคุณอย่างดม เฮ้ย! บ้านผมจะดูแลคุณอย่างดี มาร่วมสัมผัสประสบการณ์แปลกใหม่ในวงการบ้านรับน้องได้แล้ววันนี้ ตำนานต้องมีการสานต่อ บ้านผีรอคุณอยู่”
 </t>
   </si>
   <si>
@@ -278,8 +289,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">
-กลับมาอีกครั้งกับการช่วงชิงความเป็นที่สุดของงานรับน้องก้าวใหม่ Master FYO Thailand บ้านที่สนุกที่สุด อบอุ่นที่สุด และเฟี้ยวที่สุดในรั้วจุฬาฯ พี่บ้านเฟี้ยวพร้อมแล้ว น้อง ๆ ล่ะพร้อมหรือยังที่จะมาเป็นส่วนหนึ่งในบ้านหลังนี้ มาเลือกบ้านเฟี้ยวสิ แล้วน้องจะไม่ผิดหวัง
+    <t xml:space="preserve">กลับมาอีกครั้งกับการช่วงชิงความเป็นที่สุดของงานรับน้องก้าวใหม่ Master FYO Thailand บ้านที่สนุกที่สุด อบอุ่นที่สุด และเฟี้ยวที่สุดในรั้วจุฬาฯ พี่บ้านเฟี้ยวพร้อมแล้ว น้อง ๆ ล่ะพร้อมหรือยังที่จะมาเป็นส่วนหนึ่งในบ้านหลังนี้ มาเลือกบ้านเฟี้ยวสิ แล้วน้องจะไม่ผิดหวัง
 </t>
   </si>
   <si>
@@ -287,6 +297,9 @@
   </si>
   <si>
     <t xml:space="preserve">Yim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XL</t>
   </si>
   <si>
     <t xml:space="preserve">Explore &amp; Smile</t>
@@ -384,7 +397,7 @@
   </si>
   <si>
     <t xml:space="preserve">“ชีวิตมหาลัยมันเหนื่อย!” ทำไมโลกนี้มันแสนจะวุ่นวาย? ช้าก่อนเด็กน้อย..อย่าพึ่งเชื่อเสียงลือเสียงเล่าอ้างอันใด
-น้องๆจุฬา102อย่าพึ่งหวั่นใจ จับมือพี่ไว้แล้วไปด้วยกัน หากเธอเหนื่อยกายให้พี่ปลอบ หากเธอเหนื่อยใจให้พี่กล่อม 
+น้องๆจุฬา102อย่าพึ่งหวั่นใจ จับมือพี่ไว้แล้วไปด้วยกัน หากเธอเหนื่อยกายให้พี่ปลอบ หากเธอเหนื่อยใจให้พี่กล่อม
 มาเติมพลัง จุดประกายความสดใสสไตล์เฟรชชี่ เริ่มก้าวแรกอย่างแฮปปี้ดุจฝันดียามนิทราไปกับ ‘บ้านหรอย’
 ภายใต้คอนเซ็ป  PAJAMAS PARTY ! BE READY, WE’VE GOT SOME WILDEST DREAM FOR YOU :) </t>
   </si>
@@ -426,6 +439,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">！</t>
     </r>
@@ -566,6 +580,7 @@
       <sz val="10"/>
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -610,21 +625,25 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -632,7 +651,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -712,538 +731,651 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="36" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="66.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="163.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="66.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="163.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="1" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="D7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>31</v>
+      <c r="D8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>35</v>
+      <c r="A9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>39</v>
+      <c r="A10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>42</v>
+      <c r="A11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>47</v>
+      <c r="A12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>51</v>
+      <c r="A13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>54</v>
+      <c r="A14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>59</v>
+      <c r="A15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>63</v>
+      <c r="A16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>66</v>
+      <c r="A17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>67</v>
+        <v>70</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>71</v>
+      <c r="A18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>75</v>
+      <c r="A19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>78</v>
+      <c r="A20" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>83</v>
+      <c r="A21" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" s="5" t="s">
+      <c r="A22" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>87</v>
+      <c r="D22" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>91</v>
+      <c r="A23" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>95</v>
+      <c r="A24" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>98</v>
+      <c r="A25" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>99</v>
+        <v>103</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>103</v>
+      <c r="A26" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>106</v>
+      <c r="A27" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D28" s="5" t="s">
         <v>111</v>
       </c>
+      <c r="E27" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>115</v>
+      <c r="A29" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>119</v>
+      <c r="A30" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>123</v>
+      <c r="A31" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>127</v>
+      <c r="A32" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>131</v>
+      <c r="A33" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>135</v>
+      <c r="A34" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>139</v>
+      <c r="A35" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>142</v>
+      <c r="A36" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>143</v>
+        <v>147</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>147</v>
+      <c r="A37" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
